--- a/Project/Phase 2/Sprint4/Burndown Chart.xlsx
+++ b/Project/Phase 2/Sprint4/Burndown Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Desktop\SE2223_57514_60045_60602_60694_60700\Project\Phase 2\Sprint2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Desktop\SE2223_57514_60045_60602_60694_60700\Project\Phase 2\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEEC20D-9C16-44A0-A3B1-464A611FF3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BDF3A6-8C6C-4D9C-85D1-73BF5D07AE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,7 +545,7 @@
                   <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,9 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -1149,7 +1151,9 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -1167,7 +1171,7 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1204,7 +1208,7 @@
       </c>
       <c r="I7" s="14">
         <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Project/Phase 2/Sprint4/Burndown Chart.xlsx
+++ b/Project/Phase 2/Sprint4/Burndown Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Desktop\SE2223_57514_60045_60602_60694_60700\Project\Phase 2\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BDF3A6-8C6C-4D9C-85D1-73BF5D07AE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F000157D-B8F6-4A85-BBD5-193F96434BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,7 +545,7 @@
                   <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1152,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="I7" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
